--- a/Test_Data/Framework_Orange.xlsx
+++ b/Test_Data/Framework_Orange.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Framework\Robot_Framework_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Framework\Robot_Framework_Project\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9187EF41-CA42-4A22-919B-425BE35DBF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50287BD-602B-4C64-804D-5A86D15E546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFBF2614-CAD5-426C-A742-894942B4F42F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFBF2614-CAD5-426C-A742-894942B4F42F}"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmergencyContact" sheetId="1" r:id="rId1"/>
+    <sheet name="AddMembership" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>${username}</t>
   </si>
@@ -71,13 +72,28 @@
   </si>
   <si>
     <t>Brother</t>
+  </si>
+  <si>
+    <t>${membership}</t>
+  </si>
+  <si>
+    <t>${paid_by}</t>
+  </si>
+  <si>
+    <t>${amount}</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Individual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,8 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,17 +456,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58886BB8-F6E3-4CFA-8DCF-62AA689AE329}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -474,7 +500,7 @@
         <v>9988</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -491,7 +517,7 @@
         <v>7766</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -508,7 +534,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -525,7 +551,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -546,4 +572,123 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96552CF-4840-43D3-89EE-C92239072EA7}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test_Data/Framework_Orange.xlsx
+++ b/Test_Data/Framework_Orange.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Framework\Robot_Framework_Project\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50287BD-602B-4C64-804D-5A86D15E546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A52AED6-2815-4E3E-A45A-E66FEC2A1DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFBF2614-CAD5-426C-A742-894942B4F42F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DFBF2614-CAD5-426C-A742-894942B4F42F}"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmergencyContact" sheetId="1" r:id="rId1"/>
     <sheet name="AddMembership" sheetId="2" r:id="rId2"/>
+    <sheet name="AddMembership_new" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>${username}</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>CIMA</t>
   </si>
 </sst>
 </file>
@@ -578,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96552CF-4840-43D3-89EE-C92239072EA7}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15"/>
@@ -691,4 +695,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0943DF40-6A8B-4ED4-B025-EEB170B95C11}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>